--- a/HW#11(HASH TABLE)/HASH_REPORT.xlsx
+++ b/HW#11(HASH TABLE)/HASH_REPORT.xlsx
@@ -44,9 +44,6 @@
     <t>Sum of char's</t>
   </si>
   <si>
-    <t>Random const</t>
-  </si>
-  <si>
     <t>Polymomial hashing</t>
   </si>
   <si>
@@ -59,7 +56,10 @@
     <t>0.174000</t>
   </si>
   <si>
-    <t>3.045000</t>
+    <t>Const</t>
+  </si>
+  <si>
+    <t>3.996000</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>1</v>
@@ -607,24 +607,24 @@
         <v>14376</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="6">
-        <v>1000</v>
+        <v>14372</v>
       </c>
       <c r="F6" s="6">
-        <v>8764</v>
+        <v>14372</v>
       </c>
       <c r="G6" s="6">
-        <v>5678</v>
+        <v>14372</v>
       </c>
       <c r="H6" s="6">
-        <v>28391</v>
+        <v>14372</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>11</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="7" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -647,7 +647,7 @@
         <v>14376</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/HW#11(HASH TABLE)/HASH_REPORT.xlsx
+++ b/HW#11(HASH TABLE)/HASH_REPORT.xlsx
@@ -50,9 +50,6 @@
     <t>Min Chain Length (except 0)</t>
   </si>
   <si>
-    <t>55.275000</t>
-  </si>
-  <si>
     <t>0.174000</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>3.996000</t>
+  </si>
+  <si>
+    <t>6.644000</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <dimension ref="D3:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,15 +604,15 @@
         <v>13</v>
       </c>
       <c r="H5" s="6">
-        <v>14376</v>
+        <v>14372</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="6">
         <v>14372</v>
@@ -627,7 +627,7 @@
         <v>14372</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -644,10 +644,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="7">
-        <v>14376</v>
+        <v>14372</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
